--- a/target/test-classes/state_counters.xlsx
+++ b/target/test-classes/state_counters.xlsx
@@ -493,7 +493,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>9091.0</v>
+        <v>9092.0</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>2236.0</v>
